--- a/000_allgemein/Checkliste Abschlussprojekt 2024 v1.2.xlsx
+++ b/000_allgemein/Checkliste Abschlussprojekt 2024 v1.2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\020_ZLI\010_projects\Abschlussprojekt_2025_API-2_janbre_Board_FlashCardsNooThesi\000_allgemein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD58B2-8644-45C8-9ED3-CBD96DF8A034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF02EB99-200B-4897-864F-C6D09FA1B046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="17363" xr2:uid="{655FDE4C-A502-DB48-B3AC-0706539636B8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{655FDE4C-A502-DB48-B3AC-0706539636B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$2:$F$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$2:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Titelblatt</t>
   </si>
@@ -116,16 +116,10 @@
     <t>Arbeitsjournal vorhanden</t>
   </si>
   <si>
-    <t>Quellenangaben und Literaturverzeichnis vorhanden</t>
-  </si>
-  <si>
     <t>Relevante KI-Chat-Prompts/Auszüge</t>
   </si>
   <si>
     <t>Entscheidungen sind formuliert</t>
-  </si>
-  <si>
-    <t>Persönliches Fazit</t>
   </si>
   <si>
     <t>Testplan/Testfälle mit Ergebnisse</t>
@@ -224,7 +218,13 @@
     <t>Projektname (aussagekräftig / max 25 Zeichen)</t>
   </si>
   <si>
-    <t>Erledigt</t>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Arbeitsjournal</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -401,11 +401,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,6 +495,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -821,10 +842,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F51"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -840,7 +861,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="22.15" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="6"/>
@@ -848,7 +869,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -857,7 +878,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="36"/>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -866,11 +887,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
@@ -883,7 +904,9 @@
       <c r="C7" s="12"/>
       <c r="D7" s="38"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -896,34 +919,34 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="37"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="36"/>
-      <c r="F10" s="16" t="s">
-        <v>53</v>
+      <c r="F10" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
       <c r="B11" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
@@ -931,21 +954,21 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
@@ -966,8 +989,8 @@
       <c r="C15" s="23"/>
       <c r="D15" s="42"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="25" t="s">
-        <v>53</v>
+      <c r="F15" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -978,31 +1001,31 @@
       <c r="C16" s="17"/>
       <c r="D16" s="40"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="25" t="s">
-        <v>53</v>
+      <c r="F16" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="26"/>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="36"/>
-      <c r="F17" s="25" t="s">
-        <v>53</v>
+      <c r="F17" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="26"/>
       <c r="B18" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="40"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="25" t="s">
-        <v>53</v>
+      <c r="F18" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1013,8 +1036,8 @@
       <c r="C19" s="12"/>
       <c r="D19" s="38"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="25" t="s">
-        <v>53</v>
+      <c r="F19" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1033,7 +1056,9 @@
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="26"/>
@@ -1042,7 +1067,9 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="36"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
@@ -1052,7 +1079,9 @@
       <c r="C23" s="20"/>
       <c r="D23" s="41"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
@@ -1070,7 +1099,9 @@
       <c r="C25" s="23"/>
       <c r="D25" s="42"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="26"/>
@@ -1080,17 +1111,21 @@
       <c r="C26" s="17"/>
       <c r="D26" s="40"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="53" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="38"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
@@ -1103,12 +1138,14 @@
         <v>3</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
@@ -1116,9 +1153,11 @@
         <v>21</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="38"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1129,11 +1168,11 @@
         <v>22</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="37" t="s">
-        <v>49</v>
-      </c>
+      <c r="D32" s="37"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="26"/>
@@ -1142,202 +1181,198 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="26"/>
       <c r="B34" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="26"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="30"/>
-      <c r="B37" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="26"/>
+      <c r="B40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="26"/>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="31"/>
+      <c r="B42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A40" s="26"/>
-      <c r="B40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="26"/>
-      <c r="B41" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="16"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="31"/>
-      <c r="B43" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="31"/>
-      <c r="B44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="32" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="B46" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A47" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A49" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="16"/>
+      <c r="D48" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="31"/>
+      <c r="B49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="31"/>
-      <c r="B50" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
